--- a/Database/Excel/Product groups/Встраиваемая техника/Варочные панели.xlsx
+++ b/Database/Excel/Product groups/Встраиваемая техника/Варочные панели.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Варочные панели ВСТР" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Варочные панели ВСТР'!$A$1:$U$434</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Варочные панели ВСТР'!$A$1:$U$431</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8588" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8526" uniqueCount="1039">
   <si>
     <t>Название</t>
   </si>
@@ -4311,7 +4311,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4319,9 +4319,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U434"/>
+  <dimension ref="A1:U431"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -27251,37 +27253,35 @@
     </row>
     <row r="369" spans="1:21">
       <c r="A369" s="1" t="s">
-        <v>221</v>
+        <v>825</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>220</v>
+        <v>824</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G369" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I369" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J369" s="1" t="s">
-        <v>975</v>
-      </c>
+      <c r="J369" s="1"/>
       <c r="K369" s="1" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="L369" s="1" t="s">
         <v>19</v>
@@ -27293,56 +27293,48 @@
         <v>30</v>
       </c>
       <c r="O369" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P369" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q369" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R369" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S369" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T369" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="P369" s="1"/>
+      <c r="Q369" s="1"/>
+      <c r="R369" s="1"/>
+      <c r="S369" s="1"/>
+      <c r="T369" s="3"/>
       <c r="U369" s="13"/>
     </row>
     <row r="370" spans="1:21">
       <c r="A370" s="1" t="s">
-        <v>825</v>
+        <v>224</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>824</v>
+        <v>223</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G370" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H370" s="1" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="I370" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J370" s="1"/>
+      <c r="J370" s="1" t="s">
+        <v>975</v>
+      </c>
       <c r="K370" s="1" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="L370" s="1" t="s">
         <v>19</v>
@@ -27350,25 +27342,37 @@
       <c r="M370" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N370" s="1" t="s">
+      <c r="N370" s="14" t="s">
         <v>30</v>
       </c>
       <c r="O370" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P370" s="1"/>
-      <c r="Q370" s="1"/>
-      <c r="R370" s="1"/>
-      <c r="S370" s="1"/>
-      <c r="T370" s="3"/>
-      <c r="U370" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="P370" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q370" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R370" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S370" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T370" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U370" s="18" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="371" spans="1:21">
       <c r="A371" s="1" t="s">
-        <v>224</v>
+        <v>814</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>223</v>
+        <v>813</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>15</v>
@@ -27386,16 +27390,16 @@
         <v>21</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="I371" s="1" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="J371" s="1" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="K371" s="1" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="L371" s="1" t="s">
         <v>19</v>
@@ -27425,15 +27429,15 @@
         <v>23</v>
       </c>
       <c r="U371" s="18" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="372" spans="1:21">
       <c r="A372" s="1" t="s">
-        <v>814</v>
+        <v>226</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>813</v>
+        <v>225</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>15</v>
@@ -27454,7 +27458,7 @@
         <v>29</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="J372" s="1" t="s">
         <v>982</v>
@@ -27462,7 +27466,7 @@
       <c r="K372" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L372" s="1" t="s">
+      <c r="L372" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M372" s="1" t="s">
@@ -27495,10 +27499,10 @@
     </row>
     <row r="373" spans="1:21">
       <c r="A373" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>15</v>
@@ -27527,7 +27531,7 @@
       <c r="K373" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L373" s="2" t="s">
+      <c r="L373" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M373" s="1" t="s">
@@ -27560,10 +27564,10 @@
     </row>
     <row r="374" spans="1:21">
       <c r="A374" s="1" t="s">
-        <v>226</v>
+        <v>816</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>225</v>
+        <v>815</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>15</v>
@@ -27581,16 +27585,16 @@
         <v>21</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="J374" s="1" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="K374" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="L374" s="1" t="s">
         <v>19</v>
@@ -27598,13 +27602,13 @@
       <c r="M374" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N374" s="1" t="s">
+      <c r="N374" s="14" t="s">
         <v>30</v>
       </c>
       <c r="O374" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P374" s="1" t="s">
+      <c r="P374" s="14" t="s">
         <v>23</v>
       </c>
       <c r="Q374" s="1" t="s">
@@ -27620,15 +27624,15 @@
         <v>23</v>
       </c>
       <c r="U374" s="18" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="375" spans="1:21">
       <c r="A375" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>15</v>
@@ -27646,16 +27650,16 @@
         <v>21</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I375" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J375" s="1" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="K375" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="L375" s="1" t="s">
         <v>19</v>
@@ -27669,7 +27673,7 @@
       <c r="O375" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P375" s="14" t="s">
+      <c r="P375" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q375" s="1" t="s">
@@ -27685,15 +27689,15 @@
         <v>23</v>
       </c>
       <c r="U375" s="18" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="376" spans="1:21">
       <c r="A376" s="1" t="s">
-        <v>816</v>
+        <v>232</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>815</v>
+        <v>231</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>15</v>
@@ -27714,13 +27718,13 @@
         <v>41</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="J376" s="1" t="s">
         <v>988</v>
       </c>
       <c r="K376" s="1" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="L376" s="1" t="s">
         <v>19</v>
@@ -27749,43 +27753,41 @@
       <c r="T376" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U376" s="18" t="s">
-        <v>966</v>
-      </c>
+      <c r="U376" s="13"/>
     </row>
     <row r="377" spans="1:21">
       <c r="A377" s="1" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>60</v>
+        <v>958</v>
       </c>
       <c r="G377" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I377" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="K377" s="1" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="L377" s="1" t="s">
         <v>19</v>
@@ -27793,64 +27795,64 @@
       <c r="M377" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N377" s="14" t="s">
+      <c r="N377" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O377" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P377" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q377" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R377" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S377" s="1" t="s">
-        <v>31</v>
+        <v>971</v>
       </c>
       <c r="T377" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U377" s="18" t="s">
-        <v>966</v>
+        <v>22</v>
+      </c>
+      <c r="U377" s="13" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="378" spans="1:21">
       <c r="A378" s="1" t="s">
-        <v>230</v>
+        <v>933</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>229</v>
+        <v>932</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G378" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J378" s="1" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="K378" s="1" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="L378" s="1" t="s">
         <v>19</v>
@@ -27862,60 +27864,60 @@
         <v>30</v>
       </c>
       <c r="O378" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P378" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q378" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R378" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S378" s="1" t="s">
-        <v>31</v>
+        <v>971</v>
       </c>
       <c r="T378" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U378" s="18" t="s">
-        <v>966</v>
+        <v>22</v>
+      </c>
+      <c r="U378" s="13" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="379" spans="1:21">
       <c r="A379" s="1" t="s">
-        <v>232</v>
+        <v>530</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>231</v>
+        <v>529</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G379" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="J379" s="1" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="K379" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L379" s="1" t="s">
         <v>19</v>
@@ -27923,35 +27925,37 @@
       <c r="M379" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N379" s="14" t="s">
+      <c r="N379" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O379" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P379" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P379" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q379" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R379" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S379" s="1" t="s">
-        <v>31</v>
+        <v>971</v>
       </c>
       <c r="T379" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U379" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="U379" s="13" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="380" spans="1:21">
       <c r="A380" s="1" t="s">
-        <v>285</v>
+        <v>837</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>284</v>
+        <v>836</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>15</v>
@@ -27963,7 +27967,7 @@
         <v>69</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>958</v>
+        <v>66</v>
       </c>
       <c r="G380" s="1" t="s">
         <v>21</v>
@@ -27972,7 +27976,7 @@
         <v>29</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J380" s="1" t="s">
         <v>956</v>
@@ -28013,10 +28017,10 @@
     </row>
     <row r="381" spans="1:21">
       <c r="A381" s="1" t="s">
-        <v>933</v>
+        <v>532</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>932</v>
+        <v>531</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>15</v>
@@ -28037,7 +28041,7 @@
         <v>29</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="J381" s="1" t="s">
         <v>956</v>
@@ -28078,10 +28082,10 @@
     </row>
     <row r="382" spans="1:21">
       <c r="A382" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>15</v>
@@ -28099,16 +28103,16 @@
         <v>21</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>29</v>
+        <v>535</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="J382" s="1" t="s">
         <v>956</v>
       </c>
       <c r="K382" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L382" s="1" t="s">
         <v>19</v>
@@ -28143,10 +28147,10 @@
     </row>
     <row r="383" spans="1:21">
       <c r="A383" s="1" t="s">
-        <v>837</v>
+        <v>537</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>836</v>
+        <v>536</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>15</v>
@@ -28164,7 +28168,7 @@
         <v>21</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>29</v>
+        <v>535</v>
       </c>
       <c r="I383" s="1" t="s">
         <v>75</v>
@@ -28173,7 +28177,7 @@
         <v>956</v>
       </c>
       <c r="K383" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L383" s="1" t="s">
         <v>19</v>
@@ -28208,10 +28212,10 @@
     </row>
     <row r="384" spans="1:21">
       <c r="A384" s="1" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>15</v>
@@ -28229,16 +28233,16 @@
         <v>21</v>
       </c>
       <c r="H384" s="1" t="s">
-        <v>29</v>
+        <v>535</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="J384" s="1" t="s">
         <v>956</v>
       </c>
       <c r="K384" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L384" s="1" t="s">
         <v>19</v>
@@ -28273,10 +28277,10 @@
     </row>
     <row r="385" spans="1:21">
       <c r="A385" s="1" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>15</v>
@@ -28297,7 +28301,7 @@
         <v>535</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J385" s="1" t="s">
         <v>956</v>
@@ -28338,10 +28342,10 @@
     </row>
     <row r="386" spans="1:21">
       <c r="A386" s="1" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>15</v>
@@ -28362,7 +28366,7 @@
         <v>535</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="J386" s="1" t="s">
         <v>956</v>
@@ -28403,10 +28407,10 @@
     </row>
     <row r="387" spans="1:21">
       <c r="A387" s="1" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>15</v>
@@ -28424,13 +28428,13 @@
         <v>21</v>
       </c>
       <c r="H387" s="1" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="I387" s="1" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="J387" s="1" t="s">
-        <v>956</v>
+        <v>1008</v>
       </c>
       <c r="K387" s="1" t="s">
         <v>42</v>
@@ -28442,7 +28446,7 @@
         <v>33</v>
       </c>
       <c r="N387" s="1" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="O387" s="1" t="s">
         <v>47</v>
@@ -28468,10 +28472,10 @@
     </row>
     <row r="388" spans="1:21">
       <c r="A388" s="1" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>15</v>
@@ -28489,13 +28493,13 @@
         <v>21</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="J388" s="1" t="s">
-        <v>956</v>
+        <v>1008</v>
       </c>
       <c r="K388" s="1" t="s">
         <v>42</v>
@@ -28507,7 +28511,7 @@
         <v>33</v>
       </c>
       <c r="N388" s="1" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="O388" s="1" t="s">
         <v>47</v>
@@ -28533,10 +28537,10 @@
     </row>
     <row r="389" spans="1:21">
       <c r="A389" s="1" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>15</v>
@@ -28554,13 +28558,13 @@
         <v>21</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="J389" s="1" t="s">
-        <v>956</v>
+        <v>1008</v>
       </c>
       <c r="K389" s="1" t="s">
         <v>42</v>
@@ -28572,7 +28576,7 @@
         <v>33</v>
       </c>
       <c r="N389" s="1" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="O389" s="1" t="s">
         <v>47</v>
@@ -28598,10 +28602,10 @@
     </row>
     <row r="390" spans="1:21">
       <c r="A390" s="1" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>15</v>
@@ -28622,7 +28626,7 @@
         <v>546</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J390" s="1" t="s">
         <v>1008</v>
@@ -28663,10 +28667,10 @@
     </row>
     <row r="391" spans="1:21">
       <c r="A391" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>15</v>
@@ -28675,7 +28679,7 @@
         <v>63</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F391" s="1" t="s">
         <v>66</v>
@@ -28684,16 +28688,16 @@
         <v>21</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>546</v>
+        <v>55</v>
       </c>
       <c r="I391" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J391" s="1" t="s">
-        <v>1008</v>
+        <v>956</v>
       </c>
       <c r="K391" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L391" s="1" t="s">
         <v>19</v>
@@ -28728,10 +28732,10 @@
     </row>
     <row r="392" spans="1:21">
       <c r="A392" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>15</v>
@@ -28749,16 +28753,16 @@
         <v>21</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>546</v>
+        <v>29</v>
       </c>
       <c r="I392" s="1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="J392" s="1" t="s">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="K392" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L392" s="1" t="s">
         <v>19</v>
@@ -28767,7 +28771,7 @@
         <v>33</v>
       </c>
       <c r="N392" s="1" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="O392" s="1" t="s">
         <v>47</v>
@@ -28793,10 +28797,10 @@
     </row>
     <row r="393" spans="1:21">
       <c r="A393" s="1" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>15</v>
@@ -28814,16 +28818,16 @@
         <v>21</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>546</v>
+        <v>29</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="J393" s="1" t="s">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="K393" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L393" s="1" t="s">
         <v>19</v>
@@ -28832,7 +28836,7 @@
         <v>33</v>
       </c>
       <c r="N393" s="1" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="O393" s="1" t="s">
         <v>47</v>
@@ -28858,10 +28862,10 @@
     </row>
     <row r="394" spans="1:21">
       <c r="A394" s="1" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>15</v>
@@ -28870,7 +28874,7 @@
         <v>63</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F394" s="1" t="s">
         <v>66</v>
@@ -28879,10 +28883,10 @@
         <v>21</v>
       </c>
       <c r="H394" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I394" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J394" s="1" t="s">
         <v>956</v>
@@ -28897,7 +28901,7 @@
         <v>33</v>
       </c>
       <c r="N394" s="1" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="O394" s="1" t="s">
         <v>47</v>
@@ -28923,10 +28927,10 @@
     </row>
     <row r="395" spans="1:21">
       <c r="A395" s="1" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>15</v>
@@ -28947,7 +28951,7 @@
         <v>29</v>
       </c>
       <c r="I395" s="1" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="J395" s="1" t="s">
         <v>1019</v>
@@ -28986,77 +28990,77 @@
         <v>962</v>
       </c>
     </row>
-    <row r="396" spans="1:21">
-      <c r="A396" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D396" s="1" t="s">
+    <row r="396" spans="1:21" s="30" customFormat="1">
+      <c r="A396" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B396" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="C396" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D396" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E396" s="1" t="s">
+      <c r="E396" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F396" s="1" t="s">
+      <c r="F396" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G396" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H396" s="1" t="s">
+      <c r="G396" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H396" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I396" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J396" s="1" t="s">
+      <c r="I396" s="19" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J396" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="K396" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L396" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M396" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N396" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O396" s="1" t="s">
+      <c r="K396" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L396" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M396" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N396" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O396" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P396" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q396" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R396" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S396" s="1" t="s">
+      <c r="P396" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q396" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R396" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S396" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="T396" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U396" s="13" t="s">
+      <c r="T396" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="U396" s="29" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="397" spans="1:21">
       <c r="A397" s="1" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>559</v>
+        <v>623</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>15</v>
@@ -29077,10 +29081,10 @@
         <v>29</v>
       </c>
       <c r="I397" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J397" s="1" t="s">
-        <v>956</v>
+        <v>1019</v>
       </c>
       <c r="K397" s="1" t="s">
         <v>32</v>
@@ -29118,10 +29122,10 @@
     </row>
     <row r="398" spans="1:21">
       <c r="A398" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>15</v>
@@ -29142,7 +29146,7 @@
         <v>29</v>
       </c>
       <c r="I398" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="J398" s="1" t="s">
         <v>1019</v>
@@ -29181,77 +29185,77 @@
         <v>962</v>
       </c>
     </row>
-    <row r="399" spans="1:21" s="30" customFormat="1">
-      <c r="A399" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B399" s="19" t="s">
-        <v>563</v>
-      </c>
-      <c r="C399" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D399" s="19" t="s">
+    <row r="399" spans="1:21">
+      <c r="A399" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D399" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E399" s="19" t="s">
+      <c r="E399" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F399" s="2" t="s">
+      <c r="F399" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G399" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H399" s="2" t="s">
+      <c r="G399" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H399" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I399" s="19" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J399" s="2" t="s">
+      <c r="I399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J399" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="K399" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L399" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M399" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N399" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O399" s="2" t="s">
+      <c r="K399" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L399" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M399" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N399" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O399" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P399" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q399" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R399" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S399" s="2" t="s">
+      <c r="P399" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q399" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R399" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S399" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="T399" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="U399" s="29" t="s">
+      <c r="T399" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U399" s="13" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="400" spans="1:21">
       <c r="A400" s="1" t="s">
-        <v>624</v>
+        <v>570</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>623</v>
+        <v>569</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>15</v>
@@ -29272,7 +29276,7 @@
         <v>29</v>
       </c>
       <c r="I400" s="1" t="s">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="J400" s="1" t="s">
         <v>1019</v>
@@ -29313,10 +29317,10 @@
     </row>
     <row r="401" spans="1:21">
       <c r="A401" s="1" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>15</v>
@@ -29325,7 +29329,7 @@
         <v>63</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F401" s="1" t="s">
         <v>66</v>
@@ -29337,7 +29341,7 @@
         <v>29</v>
       </c>
       <c r="I401" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="J401" s="1" t="s">
         <v>1019</v>
@@ -29378,10 +29382,10 @@
     </row>
     <row r="402" spans="1:21">
       <c r="A402" s="1" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>15</v>
@@ -29399,16 +29403,16 @@
         <v>21</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="J402" s="1" t="s">
-        <v>1019</v>
+        <v>956</v>
       </c>
       <c r="K402" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L402" s="1" t="s">
         <v>19</v>
@@ -29443,10 +29447,10 @@
     </row>
     <row r="403" spans="1:21">
       <c r="A403" s="1" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>15</v>
@@ -29464,16 +29468,16 @@
         <v>21</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="J403" s="1" t="s">
-        <v>1019</v>
+        <v>956</v>
       </c>
       <c r="K403" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L403" s="1" t="s">
         <v>19</v>
@@ -29508,10 +29512,10 @@
     </row>
     <row r="404" spans="1:21">
       <c r="A404" s="1" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>15</v>
@@ -29520,7 +29524,7 @@
         <v>63</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>66</v>
@@ -29529,16 +29533,16 @@
         <v>21</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J404" s="1" t="s">
-        <v>1019</v>
+        <v>956</v>
       </c>
       <c r="K404" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L404" s="1" t="s">
         <v>19</v>
@@ -29573,10 +29577,10 @@
     </row>
     <row r="405" spans="1:21">
       <c r="A405" s="1" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>15</v>
@@ -29597,7 +29601,7 @@
         <v>76</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="J405" s="1" t="s">
         <v>956</v>
@@ -29638,10 +29642,10 @@
     </row>
     <row r="406" spans="1:21">
       <c r="A406" s="1" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>15</v>
@@ -29662,7 +29666,7 @@
         <v>76</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>18</v>
+        <v>583</v>
       </c>
       <c r="J406" s="1" t="s">
         <v>956</v>
@@ -29703,10 +29707,10 @@
     </row>
     <row r="407" spans="1:21">
       <c r="A407" s="1" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>15</v>
@@ -29727,7 +29731,7 @@
         <v>76</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J407" s="1" t="s">
         <v>956</v>
@@ -29768,10 +29772,10 @@
     </row>
     <row r="408" spans="1:21">
       <c r="A408" s="1" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>15</v>
@@ -29792,7 +29796,7 @@
         <v>76</v>
       </c>
       <c r="I408" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="J408" s="1" t="s">
         <v>956</v>
@@ -29833,10 +29837,10 @@
     </row>
     <row r="409" spans="1:21">
       <c r="A409" s="1" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>15</v>
@@ -29857,7 +29861,7 @@
         <v>76</v>
       </c>
       <c r="I409" s="1" t="s">
-        <v>583</v>
+        <v>75</v>
       </c>
       <c r="J409" s="1" t="s">
         <v>956</v>
@@ -29898,10 +29902,10 @@
     </row>
     <row r="410" spans="1:21">
       <c r="A410" s="1" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>15</v>
@@ -29922,7 +29926,7 @@
         <v>76</v>
       </c>
       <c r="I410" s="1" t="s">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="J410" s="1" t="s">
         <v>956</v>
@@ -29963,10 +29967,10 @@
     </row>
     <row r="411" spans="1:21">
       <c r="A411" s="1" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>15</v>
@@ -29975,7 +29979,7 @@
         <v>63</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>66</v>
@@ -29987,7 +29991,7 @@
         <v>76</v>
       </c>
       <c r="I411" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="J411" s="1" t="s">
         <v>956</v>
@@ -30028,10 +30032,10 @@
     </row>
     <row r="412" spans="1:21">
       <c r="A412" s="1" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>15</v>
@@ -30049,16 +30053,16 @@
         <v>21</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I412" s="1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="J412" s="1" t="s">
         <v>956</v>
       </c>
       <c r="K412" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L412" s="1" t="s">
         <v>19</v>
@@ -30067,7 +30071,7 @@
         <v>33</v>
       </c>
       <c r="N412" s="1" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="O412" s="1" t="s">
         <v>47</v>
@@ -30093,10 +30097,10 @@
     </row>
     <row r="413" spans="1:21">
       <c r="A413" s="1" t="s">
-        <v>591</v>
+        <v>908</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>590</v>
+        <v>907</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>15</v>
@@ -30114,16 +30118,16 @@
         <v>21</v>
       </c>
       <c r="H413" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I413" s="1" t="s">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="J413" s="1" t="s">
         <v>956</v>
       </c>
       <c r="K413" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L413" s="1" t="s">
         <v>19</v>
@@ -30132,7 +30136,7 @@
         <v>33</v>
       </c>
       <c r="N413" s="1" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="O413" s="1" t="s">
         <v>47</v>
@@ -30158,10 +30162,10 @@
     </row>
     <row r="414" spans="1:21">
       <c r="A414" s="1" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>15</v>
@@ -30170,7 +30174,7 @@
         <v>63</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>66</v>
@@ -30179,16 +30183,16 @@
         <v>21</v>
       </c>
       <c r="H414" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I414" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J414" s="1" t="s">
         <v>956</v>
       </c>
       <c r="K414" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L414" s="1" t="s">
         <v>19</v>
@@ -30197,7 +30201,7 @@
         <v>33</v>
       </c>
       <c r="N414" s="1" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="O414" s="1" t="s">
         <v>47</v>
@@ -30223,10 +30227,10 @@
     </row>
     <row r="415" spans="1:21">
       <c r="A415" s="1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>15</v>
@@ -30288,10 +30292,10 @@
     </row>
     <row r="416" spans="1:21">
       <c r="A416" s="1" t="s">
-        <v>908</v>
+        <v>601</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>907</v>
+        <v>600</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>15</v>
@@ -30353,10 +30357,10 @@
     </row>
     <row r="417" spans="1:21">
       <c r="A417" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>15</v>
@@ -30377,7 +30381,7 @@
         <v>38</v>
       </c>
       <c r="I417" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J417" s="1" t="s">
         <v>956</v>
@@ -30418,10 +30422,10 @@
     </row>
     <row r="418" spans="1:21">
       <c r="A418" s="1" t="s">
-        <v>599</v>
+        <v>450</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>598</v>
+        <v>449</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>15</v>
@@ -30439,10 +30443,10 @@
         <v>21</v>
       </c>
       <c r="H418" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I418" s="1" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="J418" s="1" t="s">
         <v>956</v>
@@ -30457,7 +30461,7 @@
         <v>33</v>
       </c>
       <c r="N418" s="1" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="O418" s="1" t="s">
         <v>47</v>
@@ -30483,10 +30487,10 @@
     </row>
     <row r="419" spans="1:21">
       <c r="A419" s="1" t="s">
-        <v>601</v>
+        <v>269</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>600</v>
+        <v>268</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>15</v>
@@ -30504,10 +30508,10 @@
         <v>21</v>
       </c>
       <c r="H419" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I419" s="1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="J419" s="1" t="s">
         <v>956</v>
@@ -30522,7 +30526,7 @@
         <v>33</v>
       </c>
       <c r="N419" s="1" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="O419" s="1" t="s">
         <v>47</v>
@@ -30548,10 +30552,10 @@
     </row>
     <row r="420" spans="1:21">
       <c r="A420" s="1" t="s">
-        <v>603</v>
+        <v>448</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>602</v>
+        <v>447</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>15</v>
@@ -30569,7 +30573,7 @@
         <v>21</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I420" s="1" t="s">
         <v>75</v>
@@ -30587,7 +30591,7 @@
         <v>33</v>
       </c>
       <c r="N420" s="1" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="O420" s="1" t="s">
         <v>47</v>
@@ -30613,10 +30617,10 @@
     </row>
     <row r="421" spans="1:21">
       <c r="A421" s="1" t="s">
-        <v>450</v>
+        <v>770</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>449</v>
+        <v>769</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>15</v>
@@ -30625,7 +30629,7 @@
         <v>63</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>66</v>
@@ -30637,7 +30641,7 @@
         <v>29</v>
       </c>
       <c r="I421" s="1" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="J421" s="1" t="s">
         <v>956</v>
@@ -30678,10 +30682,10 @@
     </row>
     <row r="422" spans="1:21">
       <c r="A422" s="1" t="s">
-        <v>269</v>
+        <v>941</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>268</v>
+        <v>940</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>15</v>
@@ -30690,7 +30694,7 @@
         <v>63</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>66</v>
@@ -30704,9 +30708,7 @@
       <c r="I422" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J422" s="1" t="s">
-        <v>956</v>
-      </c>
+      <c r="J422" s="1"/>
       <c r="K422" s="1" t="s">
         <v>32</v>
       </c>
@@ -30722,31 +30724,23 @@
       <c r="O422" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P422" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="P422" s="1"/>
       <c r="Q422" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R422" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S422" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="T422" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U422" s="13" t="s">
-        <v>962</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S422" s="1"/>
+      <c r="T422" s="3"/>
+      <c r="U422" s="13"/>
     </row>
     <row r="423" spans="1:21">
       <c r="A423" s="1" t="s">
-        <v>448</v>
+        <v>786</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>447</v>
+        <v>785</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>15</v>
@@ -30764,22 +30758,22 @@
         <v>21</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I423" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="J423" s="1" t="s">
         <v>956</v>
       </c>
       <c r="K423" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L423" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M423" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N423" s="1" t="s">
         <v>30</v>
@@ -30808,10 +30802,10 @@
     </row>
     <row r="424" spans="1:21">
       <c r="A424" s="1" t="s">
-        <v>770</v>
+        <v>467</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>769</v>
+        <v>466</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>15</v>
@@ -30820,7 +30814,7 @@
         <v>63</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>66</v>
@@ -30829,22 +30823,22 @@
         <v>21</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I424" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J424" s="1" t="s">
         <v>956</v>
       </c>
       <c r="K424" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L424" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M424" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N424" s="1" t="s">
         <v>30</v>
@@ -30873,10 +30867,10 @@
     </row>
     <row r="425" spans="1:21">
       <c r="A425" s="1" t="s">
-        <v>941</v>
+        <v>74</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>940</v>
+        <v>73</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>15</v>
@@ -30885,7 +30879,7 @@
         <v>63</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="F425" s="1" t="s">
         <v>66</v>
@@ -30894,20 +30888,22 @@
         <v>21</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I425" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J425" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>956</v>
+      </c>
       <c r="K425" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L425" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M425" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N425" s="1" t="s">
         <v>30</v>
@@ -30915,23 +30911,31 @@
       <c r="O425" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P425" s="1"/>
+      <c r="P425" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="Q425" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R425" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S425" s="1"/>
-      <c r="T425" s="3"/>
-      <c r="U425" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="S425" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="T425" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U425" s="13" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="426" spans="1:21">
       <c r="A426" s="1" t="s">
-        <v>786</v>
+        <v>446</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>785</v>
+        <v>445</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>15</v>
@@ -30940,7 +30944,7 @@
         <v>63</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>66</v>
@@ -30952,7 +30956,7 @@
         <v>76</v>
       </c>
       <c r="I426" s="1" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="J426" s="1" t="s">
         <v>956</v>
@@ -30964,7 +30968,7 @@
         <v>19</v>
       </c>
       <c r="M426" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N426" s="1" t="s">
         <v>30</v>
@@ -30993,10 +30997,10 @@
     </row>
     <row r="427" spans="1:21">
       <c r="A427" s="1" t="s">
-        <v>467</v>
+        <v>70</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>466</v>
+        <v>68</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>15</v>
@@ -31014,16 +31018,16 @@
         <v>21</v>
       </c>
       <c r="H427" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="I427" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J427" s="1" t="s">
         <v>956</v>
       </c>
       <c r="K427" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L427" s="1" t="s">
         <v>19</v>
@@ -31058,10 +31062,10 @@
     </row>
     <row r="428" spans="1:21">
       <c r="A428" s="1" t="s">
-        <v>74</v>
+        <v>646</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>73</v>
+        <v>645</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>15</v>
@@ -31079,16 +31083,16 @@
         <v>21</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="I428" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="J428" s="1" t="s">
         <v>956</v>
       </c>
       <c r="K428" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L428" s="1" t="s">
         <v>19</v>
@@ -31123,10 +31127,10 @@
     </row>
     <row r="429" spans="1:21">
       <c r="A429" s="1" t="s">
-        <v>446</v>
+        <v>72</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>445</v>
+        <v>71</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>15</v>
@@ -31135,7 +31139,7 @@
         <v>63</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F429" s="1" t="s">
         <v>66</v>
@@ -31144,22 +31148,22 @@
         <v>21</v>
       </c>
       <c r="H429" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="I429" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="J429" s="1" t="s">
         <v>956</v>
       </c>
       <c r="K429" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L429" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M429" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N429" s="1" t="s">
         <v>30</v>
@@ -31186,77 +31190,73 @@
         <v>962</v>
       </c>
     </row>
-    <row r="430" spans="1:21">
-      <c r="A430" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D430" s="1" t="s">
+    <row r="430" spans="1:21" s="22" customFormat="1">
+      <c r="A430" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B430" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C430" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D430" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E430" s="1" t="s">
+      <c r="E430" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F430" s="1" t="s">
+      <c r="F430" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G430" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H430" s="1" t="s">
+      <c r="G430" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H430" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I430" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J430" s="1" t="s">
+      <c r="I430" s="19"/>
+      <c r="J430" s="19" t="s">
         <v>956</v>
       </c>
-      <c r="K430" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L430" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M430" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N430" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O430" s="1" t="s">
+      <c r="K430" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L430" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M430" s="19"/>
+      <c r="N430" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O430" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="P430" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q430" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R430" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S430" s="1" t="s">
+      <c r="P430" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q430" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R430" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S430" s="19" t="s">
         <v>971</v>
       </c>
-      <c r="T430" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U430" s="13" t="s">
+      <c r="T430" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="U430" s="21" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="431" spans="1:21">
       <c r="A431" s="1" t="s">
-        <v>646</v>
+        <v>821</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>645</v>
+        <v>820</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>15</v>
@@ -31274,16 +31274,16 @@
         <v>21</v>
       </c>
       <c r="H431" s="1" t="s">
-        <v>29</v>
+        <v>535</v>
       </c>
       <c r="I431" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J431" s="1" t="s">
         <v>956</v>
       </c>
       <c r="K431" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="L431" s="1" t="s">
         <v>19</v>
@@ -31313,197 +31313,6 @@
         <v>22</v>
       </c>
       <c r="U431" s="13" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="432" spans="1:21">
-      <c r="A432" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E432" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F432" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G432" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H432" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I432" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J432" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="K432" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L432" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M432" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N432" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O432" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P432" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q432" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R432" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S432" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="T432" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U432" s="13" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="433" spans="1:21" s="22" customFormat="1">
-      <c r="A433" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="B433" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C433" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D433" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E433" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F433" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G433" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H433" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I433" s="19"/>
-      <c r="J433" s="19" t="s">
-        <v>956</v>
-      </c>
-      <c r="K433" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L433" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M433" s="19"/>
-      <c r="N433" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O433" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="P433" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q433" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R433" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S433" s="19" t="s">
-        <v>971</v>
-      </c>
-      <c r="T433" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="U433" s="21" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="434" spans="1:21">
-      <c r="A434" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E434" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F434" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G434" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H434" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I434" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J434" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="K434" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L434" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M434" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N434" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O434" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P434" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q434" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R434" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S434" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="T434" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U434" s="13" t="s">
         <v>962</v>
       </c>
     </row>
